--- a/medicine/Mort/Beffroi_de_Bateson/Beffroi_de_Bateson.xlsx
+++ b/medicine/Mort/Beffroi_de_Bateson/Beffroi_de_Bateson.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un beffroi de Bateson est une adjonction à des cercueils sécurisés, qui est une cloche ou clochette montée dans un clocher miniature positionné sur le couvercle du cercueil ou au-dessus de la tombe.
 Une corde relie la cloche aux mains du défunt en passant au travers d'un trou dans le couvercle du cercueil. Ce dispositif breveté par l'anglais George Bateson en 1852 devait permettre à une personne enterrée vivante de se manifester.
